--- a/result_files/final_result_dataAug_T_lapras_ST2_NT1.xlsx
+++ b/result_files/final_result_dataAug_T_lapras_ST2_NT1.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9569033530571993</v>
+        <v>0.9358481262327414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03630691740264973</v>
+        <v>0.05627632771751921</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9608481262327416</v>
+        <v>0.8342702169625247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03551336687230037</v>
+        <v>0.07848526561490361</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9983234714003943</v>
+        <v>0.9253944773175542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001515018885181172</v>
+        <v>0.1004054357682348</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7893491124260354</v>
+        <v>0.7519723865877712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09396171065213543</v>
+        <v>0.07430820862156795</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9651627218934911</v>
+        <v>0.8819156804733728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0468242002958157</v>
+        <v>0.0792477122076556</v>
       </c>
     </row>
   </sheetData>
